--- a/item/绩效评价.xlsx
+++ b/item/绩效评价.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="18520" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="谁在做什么" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="谁在做什么">谁在做什么!$A$1:$D$1</definedName>
+    <definedName name="谁在做什么">谁在做什么!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>任务名称</t>
   </si>
@@ -705,26 +705,387 @@
     <t>编码</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端注册、登录、首页、消息、签到、内容界面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端活动、我的及各衍生按钮界面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后端连接数据库、定位、签到等具体实现</t>
+    </r>
+  </si>
+  <si>
     <t>测试</t>
   </si>
   <si>
-    <t>综合测试修订</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑盒测试</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块测试（单元测试）</t>
+    </r>
+  </si>
+  <si>
+    <t>司晨旭、吴佳丽</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统测试（集成测试）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统测试</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新用户手册</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户测试</t>
+    </r>
   </si>
   <si>
     <t>总结收尾</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理并更新项目计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理并更新可行性分析</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理并更新SRS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理并更新总体设计</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理并更新详细设计</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理并更新测试计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>撰写总结文档</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新总结文档</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成员评价</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +1118,22 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1236,10 +1613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,37 +1625,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1287,120 +1658,132 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1747,966 +2130,1109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="18.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="12.8888888888889"/>
+    <col min="1" max="1" width="33.8909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="27.6" spans="1:12">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE(C3:E3)</f>
+        <v>7.33333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <f>AVERAGE(I3:K3)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F57" si="0">AVERAGE(C4:E4)</f>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>7.33333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>9.33333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L35" si="0">AVERAGE(I4:K4)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>9.33333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6">
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6">
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8">
         <f t="shared" si="0"/>
         <v>9.33333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7">
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>7.33333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
         <v>10</v>
       </c>
-      <c r="J7">
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>9.33333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="28" spans="1:6">
+      <c r="A29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>10</v>
       </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="32" ht="42" spans="1:6">
+      <c r="A32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="0"/>
+        <v>7.66666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="0"/>
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="36" ht="42" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" ht="28" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38" s="8">
         <f t="shared" si="0"/>
         <v>9.33333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" s="10">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" ht="28" spans="1:6">
+      <c r="A40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" s="11">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="0"/>
+        <v>7.66666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" ht="42" spans="1:6">
+      <c r="A42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" s="11">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" ht="28" spans="1:6">
+      <c r="A43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" s="11">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>9</v>
-      </c>
-      <c r="L9">
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" s="11">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" s="11">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" s="11">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="0"/>
+        <v>7.66666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47" s="11">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="0"/>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49" s="11">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="0"/>
+        <v>9.33333333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50" s="11">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="0"/>
+        <v>9.33333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51" s="11">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="F51" s="8">
         <f t="shared" si="0"/>
         <v>8.66666666666667</v>
       </c>
     </row>
-    <row r="10" ht="27.6" spans="1:12">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" s="11">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="0"/>
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53" s="11">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54" s="11">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="0"/>
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="55" ht="28" spans="1:6">
+      <c r="A55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>8.33333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>8</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55" s="11">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="0"/>
+        <v>9.33333333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>9</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>8.66666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <v>9</v>
-      </c>
-      <c r="K14">
-        <v>8</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>8.33333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15">
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" s="11">
         <v>10</v>
       </c>
-      <c r="J15">
+      <c r="E56">
+        <v>9</v>
+      </c>
+      <c r="F56" s="8">
+        <f t="shared" si="0"/>
+        <v>9.33333333333333</v>
+      </c>
+    </row>
+    <row r="57" ht="42" spans="1:6">
+      <c r="A57" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57" s="11">
+        <v>9</v>
+      </c>
+      <c r="E57">
         <v>10</v>
       </c>
-      <c r="K15">
-        <v>8</v>
-      </c>
-      <c r="L15">
+      <c r="F57" s="8">
         <f t="shared" si="0"/>
         <v>9.33333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="K16">
-        <v>8</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>8</v>
-      </c>
-      <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>8</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>8.33333333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" ht="27.6" spans="1:12">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>9</v>
-      </c>
-      <c r="J20">
-        <v>8</v>
-      </c>
-      <c r="K20">
-        <v>9</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>8.66666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>8</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>8.66666666666667</v>
-      </c>
-    </row>
-    <row r="22" ht="27.6" spans="1:12">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>9</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22">
-        <v>9</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>9.33333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23">
-        <v>9</v>
-      </c>
-      <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23">
-        <v>8</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>8.66666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-      <c r="J24">
-        <v>8</v>
-      </c>
-      <c r="K24">
-        <v>8</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" ht="41.4" spans="1:12">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25">
-        <v>9</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>9</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>9.33333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <v>8</v>
-      </c>
-      <c r="J26">
-        <v>8</v>
-      </c>
-      <c r="K26">
-        <v>8</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <v>9</v>
-      </c>
-      <c r="J28">
-        <v>10</v>
-      </c>
-      <c r="K28">
-        <v>9</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>9.33333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="27.6" spans="1:12">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29">
-        <v>9</v>
-      </c>
-      <c r="J29">
-        <v>10</v>
-      </c>
-      <c r="K29">
-        <v>8</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30">
-        <v>9</v>
-      </c>
-      <c r="J30">
-        <v>9</v>
-      </c>
-      <c r="K30">
-        <v>8</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>8.66666666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>8</v>
-      </c>
-      <c r="J31">
-        <v>9</v>
-      </c>
-      <c r="K31">
-        <v>9</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>8.66666666666667</v>
-      </c>
-    </row>
-    <row r="32" ht="41.4" spans="1:12">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32">
-        <v>9</v>
-      </c>
-      <c r="J32">
-        <v>9</v>
-      </c>
-      <c r="K32">
-        <v>8</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>8.66666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>8</v>
-      </c>
-      <c r="J33">
-        <v>6</v>
-      </c>
-      <c r="K33">
-        <v>8</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>7.33333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="27.6" spans="1:12">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34">
-        <v>9</v>
-      </c>
-      <c r="J34">
-        <v>8</v>
-      </c>
-      <c r="K34">
-        <v>9</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>8.66666666666667</v>
-      </c>
-    </row>
-    <row r="35" ht="27.6" spans="1:12">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35">
-        <v>8</v>
-      </c>
-      <c r="J35">
-        <v>10</v>
-      </c>
-      <c r="K35">
-        <v>8</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>8.66666666666667</v>
-      </c>
-    </row>
-    <row r="36" ht="41.4" spans="1:8">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" ht="41.4" spans="1:8">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" ht="41.4" spans="1:8">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" ht="41.4" spans="1:8">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" ht="41.4" spans="1:8">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/item/绩效评价.xlsx
+++ b/item/绩效评价.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7730"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="谁在做什么" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1755,7 +1754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1783,7 +1782,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2132,13 +2133,13 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33.8909090909091" customWidth="1"/>
+    <col min="1" max="1" width="33.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2320,7 +2321,7 @@
         <v>8.33333333333333</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:6">
+    <row r="10" ht="27.6" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>7.33333333333333</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="1:6">
+    <row r="25" ht="27.6" spans="1:6">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>9.33333333333333</v>
       </c>
     </row>
-    <row r="29" ht="28" spans="1:6">
+    <row r="29" ht="27.6" spans="1:6">
       <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>8.66666666666667</v>
       </c>
     </row>
-    <row r="32" ht="42" spans="1:6">
+    <row r="32" ht="41.4" spans="1:6">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>8.66666666666667</v>
       </c>
     </row>
-    <row r="36" ht="42" spans="1:6">
+    <row r="36" ht="41.4" spans="1:6">
       <c r="A36" s="6" t="s">
         <v>44</v>
       </c>
@@ -2838,7 +2839,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" ht="28" spans="1:6">
+    <row r="38" ht="27.6" spans="1:6">
       <c r="A38" s="6" t="s">
         <v>46</v>
       </c>
@@ -2848,7 +2849,7 @@
       <c r="C38">
         <v>9</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
         <v>10</v>
       </c>
       <c r="E38">
@@ -2869,7 +2870,7 @@
       <c r="C39">
         <v>8</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="11">
         <v>8</v>
       </c>
       <c r="E39">
@@ -2880,7 +2881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" ht="28" spans="1:6">
+    <row r="40" ht="27.6" spans="1:6">
       <c r="A40" s="6" t="s">
         <v>48</v>
       </c>
@@ -2890,7 +2891,7 @@
       <c r="C40">
         <v>7</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="12">
         <v>9</v>
       </c>
       <c r="E40">
@@ -2906,9 +2907,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="5"/>
+      <c r="D41" s="13"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" ht="42" spans="1:6">
+    <row r="42" ht="41.4" spans="1:6">
       <c r="A42" s="6" t="s">
         <v>50</v>
       </c>
@@ -2918,7 +2920,7 @@
       <c r="C42">
         <v>8</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="12">
         <v>9</v>
       </c>
       <c r="E42">
@@ -2929,7 +2931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" ht="28" spans="1:6">
+    <row r="43" ht="27.6" spans="1:6">
       <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
@@ -2939,7 +2941,7 @@
       <c r="C43">
         <v>8</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="12">
         <v>9</v>
       </c>
       <c r="E43">
@@ -2960,7 +2962,7 @@
       <c r="C44">
         <v>9</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="12">
         <v>6</v>
       </c>
       <c r="E44">
@@ -2981,7 +2983,7 @@
       <c r="C45">
         <v>8</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="12">
         <v>6</v>
       </c>
       <c r="E45">
@@ -3002,7 +3004,7 @@
       <c r="C46">
         <v>8</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="12">
         <v>7</v>
       </c>
       <c r="E46">
@@ -3023,7 +3025,7 @@
       <c r="C47">
         <v>9</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="12">
         <v>8</v>
       </c>
       <c r="E47">
@@ -3039,6 +3041,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="5"/>
+      <c r="D48" s="13"/>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6">
@@ -3051,7 +3054,7 @@
       <c r="C49">
         <v>9</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="12">
         <v>10</v>
       </c>
       <c r="E49">
@@ -3072,7 +3075,7 @@
       <c r="C50">
         <v>9</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="12">
         <v>10</v>
       </c>
       <c r="E50">
@@ -3093,7 +3096,7 @@
       <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="12">
         <v>8</v>
       </c>
       <c r="E51">
@@ -3114,7 +3117,7 @@
       <c r="C52">
         <v>8</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="12">
         <v>9</v>
       </c>
       <c r="E52">
@@ -3135,7 +3138,7 @@
       <c r="C53">
         <v>9</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="12">
         <v>9</v>
       </c>
       <c r="E53">
@@ -3156,7 +3159,7 @@
       <c r="C54">
         <v>9</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="12">
         <v>8</v>
       </c>
       <c r="E54">
@@ -3167,7 +3170,7 @@
         <v>8.66666666666667</v>
       </c>
     </row>
-    <row r="55" ht="28" spans="1:6">
+    <row r="55" ht="27.6" spans="1:6">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -3177,7 +3180,7 @@
       <c r="C55">
         <v>9</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="12">
         <v>10</v>
       </c>
       <c r="E55">
@@ -3198,7 +3201,7 @@
       <c r="C56">
         <v>9</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="12">
         <v>10</v>
       </c>
       <c r="E56">
@@ -3209,7 +3212,7 @@
         <v>9.33333333333333</v>
       </c>
     </row>
-    <row r="57" ht="42" spans="1:6">
+    <row r="57" ht="41.4" spans="1:6">
       <c r="A57" s="6" t="s">
         <v>66</v>
       </c>
@@ -3219,7 +3222,7 @@
       <c r="C57">
         <v>9</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="12">
         <v>9</v>
       </c>
       <c r="E57">

--- a/item/绩效评价.xlsx
+++ b/item/绩效评价.xlsx
@@ -1085,7 +1085,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,13 +1121,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1612,10 +1605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1624,33 +1617,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1660,101 +1656,98 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1782,8 +1775,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2133,8 +2124,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2891,7 +2882,7 @@
       <c r="C40">
         <v>7</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>9</v>
       </c>
       <c r="E40">
@@ -2907,7 +2898,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="11"/>
       <c r="F41" s="8"/>
     </row>
     <row r="42" ht="41.4" spans="1:6">
@@ -2920,7 +2911,7 @@
       <c r="C42">
         <v>8</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>9</v>
       </c>
       <c r="E42">
@@ -2941,7 +2932,7 @@
       <c r="C43">
         <v>8</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>9</v>
       </c>
       <c r="E43">
@@ -2962,7 +2953,7 @@
       <c r="C44">
         <v>9</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>6</v>
       </c>
       <c r="E44">
@@ -2983,7 +2974,7 @@
       <c r="C45">
         <v>8</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <v>6</v>
       </c>
       <c r="E45">
@@ -3004,7 +2995,7 @@
       <c r="C46">
         <v>8</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>7</v>
       </c>
       <c r="E46">
@@ -3025,7 +3016,7 @@
       <c r="C47">
         <v>9</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>8</v>
       </c>
       <c r="E47">
@@ -3041,7 +3032,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="D48" s="13"/>
+      <c r="D48" s="11"/>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6">
@@ -3054,7 +3045,7 @@
       <c r="C49">
         <v>9</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>10</v>
       </c>
       <c r="E49">
@@ -3075,7 +3066,7 @@
       <c r="C50">
         <v>9</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>10</v>
       </c>
       <c r="E50">
@@ -3096,7 +3087,7 @@
       <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>8</v>
       </c>
       <c r="E51">
@@ -3117,7 +3108,7 @@
       <c r="C52">
         <v>8</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>9</v>
       </c>
       <c r="E52">
@@ -3138,7 +3129,7 @@
       <c r="C53">
         <v>9</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>9</v>
       </c>
       <c r="E53">
@@ -3159,7 +3150,7 @@
       <c r="C54">
         <v>9</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <v>8</v>
       </c>
       <c r="E54">
@@ -3180,7 +3171,7 @@
       <c r="C55">
         <v>9</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>10</v>
       </c>
       <c r="E55">
@@ -3201,7 +3192,7 @@
       <c r="C56">
         <v>9</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>10</v>
       </c>
       <c r="E56">
@@ -3222,7 +3213,7 @@
       <c r="C57">
         <v>9</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>9</v>
       </c>
       <c r="E57">
